--- a/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
+++ b/tools/r-packages/nibrs/inst/raw/NIBRSCodeTables.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haiqiwei/git/nibrsSpringBoot2/tools/r-packages/nibrs/inst/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACAA1D8-F591-9A40-BC2D-26244D42A312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23715" yWindow="2655" windowWidth="20475" windowHeight="12255" tabRatio="705" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="26880" yWindow="720" windowWidth="29300" windowHeight="14200" tabRatio="705" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -40,7 +46,7 @@
     <sheet name="CargoTheftIndicatorType" sheetId="31" r:id="rId31"/>
     <sheet name="NibrsErrorCodeType" sheetId="32" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4237,7 +4243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -4453,7 +4459,7 @@
     <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1"/>
+    <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4511,7 +4517,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4544,9 +4550,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4579,6 +4602,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4754,16 +4794,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5024,7 +5064,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
     <sortCondition ref="A2:A29"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5038,17 +5078,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="49.625" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
@@ -5595,17 +5635,17 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="3"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -5730,17 +5770,17 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="3"/>
-    <col min="3" max="3" width="58.125" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="58.1640625" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6526,17 +6566,17 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -6771,16 +6811,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -6949,14 +6989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -7094,16 +7134,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -7272,14 +7312,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
   </cols>
@@ -7406,14 +7446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" t="s">
@@ -7482,16 +7522,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -7583,7 +7623,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7597,14 +7637,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
@@ -7687,14 +7727,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
@@ -7763,14 +7803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="4" t="s">
@@ -7839,16 +7879,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -8083,14 +8123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -8217,14 +8257,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
@@ -8362,16 +8402,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -8683,7 +8723,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -8697,16 +8737,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -8787,14 +8827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -8866,16 +8906,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="60.125" customWidth="1"/>
+    <col min="3" max="3" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -9011,16 +9051,16 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -9090,16 +9130,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -9213,17 +9253,17 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9369,16 +9409,16 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9447,20 +9487,20 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:E269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="1"/>
-    <col min="3" max="3" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="129.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14048,21 +14088,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="3"/>
-    <col min="3" max="3" width="59.125" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="37.625" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="59.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -14200,7 +14240,7 @@
         <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
@@ -15456,13 +15496,13 @@
         <v>471</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>261</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>638</v>
+        <v>471</v>
       </c>
       <c r="G61" t="s">
         <v>506</v>
@@ -15502,7 +15542,7 @@
         <v>466</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>261</v>
@@ -15607,7 +15647,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C64">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C64">
     <sortCondition ref="A2:A64"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -15621,16 +15661,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="38.875" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -15722,16 +15762,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="3"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
     <col min="3" max="3" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16286,16 +16326,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
@@ -16365,14 +16405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="65.5" customWidth="1"/>
   </cols>
@@ -16587,17 +16627,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="3"/>
-    <col min="3" max="3" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
     <col min="4" max="4" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
